--- a/src/Section Properties ITERATION003A.xlsx
+++ b/src/Section Properties ITERATION003A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74FC1C6-AC9A-4912-A228-F2244646CA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C640DA53-414E-4DF1-8985-09354B2D356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2940" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -863,43 +863,43 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1076,23 +1076,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.4780463614418986</v>
+        <v>0.61622759405370831</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.37867722872195997</v>
+        <v>-0.37162089312133872</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>5.3561325864337116E-2</v>
+        <v>8.9000729923411376E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>3.36085414576274E-2</v>
+        <v>3.236767692288315E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.2427797972992481E-2</v>
+        <v>-5.3672589578496764E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1115,23 +1115,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.15704251796192217</v>
+        <v>0.76204093335899392</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.52909833019267838</v>
+        <v>-0.49820360030646449</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>5.7802388549579638E-3</v>
+        <v>0.13610305877687029</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>6.5612119456097004E-2</v>
+        <v>5.8173475162107052E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-1.947443766161876E-2</v>
+        <v>-8.8980828886019381E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.49632277127804</v>
+        <v>1.5033791068786613</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1206,18 +1206,18 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>4.3384466129089867E-2</v>
+        <v>4.2436038981606146E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>7.467079320344842E-4</v>
+        <v>1.7362867472078308E-2</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-2.4829908018563921E-3</v>
+        <v>-1.134505568296747E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1258,23 +1258,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.5532036385581014</v>
+        <v>-0.41502240594629169</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.37867722872195997</v>
+        <v>-0.37162089312133872</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>7.423327193725926E-2</v>
+        <v>4.1780307764550571E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>3.4782991258313689E-2</v>
+        <v>3.3498764737529475E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>5.0813927705597721E-2</v>
+        <v>3.7411077242793418E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1297,23 +1297,23 @@
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.87420748203807785</v>
+        <v>-0.26920906664100608</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.52909833019267838</v>
+        <v>-0.49820360030646449</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>0.18537774100878268</v>
+        <v>1.7579556399645854E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>6.7904933641888737E-2</v>
+        <v>6.0206346073672888E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>0.11219653827941672</v>
+        <v>3.253307327042327E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1339,27 +1339,27 @@
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.4467963614418986</v>
+        <v>-0.58497759405370831</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.49632277127804</v>
+        <v>-1.5033791068786613</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.1251887514213021</v>
+        <v>1.1093954962314019</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.5990431452793531</v>
+        <v>0.48858804929321309</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-7.1892200510553617E-2</v>
+        <v>-0.22939750778111434</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.66886812019011532</v>
+        <v>0.48941416482219036</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.37867722872195997</v>
+        <v>-0.37162089312133872</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1394,18 +1394,18 @@
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>1.1244533633293832E-2</v>
+        <v>1.0262963718346311E-2</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>5.9878986734149264E-2</v>
+        <v>3.8484718196484316E-2</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>4.6428566703644522E-3</v>
+        <v>-5.5142351182822132E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1445,23 +1445,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.3032036385581014</v>
+        <v>-0.16502240594629169</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.43382277127804</v>
+        <v>1.4408791068786613</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>1.723733370653846E-2</v>
+        <v>5.1060739620567546E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.38547145114414472</v>
+        <v>0.38927486261989663</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-8.1513802743555394E-2</v>
+        <v>-4.4583250667786373E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1484,23 +1484,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.62420748203807785</v>
+        <v>-1.9209066641006078E-2</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.2834016698073216</v>
+        <v>1.3142963996935355</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>7.3056558868559496E-2</v>
+        <v>6.9185295228489844E-5</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.3088349711370415</v>
+        <v>0.32388281742138558</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-0.15020792339135491</v>
+        <v>-4.7337013364526529E-3</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1575,18 +1575,18 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>2.3953631161558218E-2</v>
+        <v>2.5119839248594882E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>7.4782895623133607E-3</v>
+        <v>1.8217681103802081E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-1.1641114062830006E-2</v>
+        <v>-3.6686185357508058E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1626,23 +1626,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.1967963614418986</v>
+        <v>0.33497759405370831</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1911772287219602</v>
+        <v>-2.1841208931213387</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>2.4205504922981498E-3</v>
+        <v>7.013124282375687E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.30007860297935307</v>
+        <v>0.29814900473557215</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-2.6950981617926539E-2</v>
+        <v>-4.5726972618763913E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1665,23 +1665,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>-0.12420748203807783</v>
+        <v>0.48079093335899392</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.3415983301926784</v>
+        <v>-2.3107036003064643</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>9.6421866213996415E-4</v>
+        <v>1.4447495100013284E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.34269267124757125</v>
+        <v>0.33370944552932852</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>1.8177752033612507E-2</v>
+        <v>-6.9435333794208284E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1707,27 +1707,27 @@
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.12579251796192217</v>
+        <v>-0.73079093335899392</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.3459016698073216</v>
+        <v>-1.3767963996935355</v>
       </c>
       <c r="AJ5">
         <f>AZ16</f>
-        <v>0.14019346369208396</v>
+        <v>0.13210759476974177</v>
       </c>
       <c r="AK5">
         <f>BA16</f>
-        <v>0.1264258576425826</v>
+        <v>7.4388907493138659E-2</v>
       </c>
       <c r="AL5">
         <f>BB16</f>
-        <v>3.7018839423685584E-2</v>
+        <v>-4.3508434346885359E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>1.6353684410879362E-2</v>
+        <v>7.9343557871501338E-3</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1758,18 +1758,18 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>2.6564988987832602E-2</v>
+        <v>2.5868788994668792E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>1.7563840464918055E-4</v>
+        <v>1.2205923285843628E-3</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>1.4087757826049692E-3</v>
+        <v>-5.3812383690511421E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.5717963614418986</v>
+        <v>0.70997759405370831</v>
       </c>
       <c r="L6" t="e">
         <f t="shared" si="1"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>5.1086106087217869E-3</v>
+        <v>7.8760653759108162E-3</v>
       </c>
       <c r="N6" t="e">
         <f t="shared" si="8"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.25079251796192215</v>
+        <v>0.85579093335899392</v>
       </c>
       <c r="V6" t="e">
         <f t="shared" si="4"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>9.8276386040126629E-4</v>
+        <v>1.144340815030403E-2</v>
       </c>
       <c r="X6" t="e">
         <f t="shared" si="14"/>
@@ -1923,14 +1923,14 @@
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>5.6675653555379865E-4</v>
+        <v>6.4770205593488598E-3</v>
       </c>
       <c r="BB6" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.5717963614418986</v>
+        <v>0.70997759405370831</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>5.1086106087217869E-3</v>
+        <v>7.8760653759108162E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.25079251796192215</v>
+        <v>0.85579093335899392</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>9.8276386040126629E-4</v>
+        <v>1.144340815030403E-2</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>5.6675653555379865E-4</v>
+        <v>6.4770205593488598E-3</v>
       </c>
       <c r="BB7" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.5717963614418986</v>
+        <v>0.70997759405370831</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>5.1086106087217869E-3</v>
+        <v>7.8760653759108162E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.25079251796192215</v>
+        <v>0.85579093335899392</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>9.8276386040126629E-4</v>
+        <v>1.144340815030403E-2</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>5.6675653555379865E-4</v>
+        <v>6.4770205593488598E-3</v>
       </c>
       <c r="BB8" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.5717963614418986</v>
+        <v>0.70997759405370831</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>5.1086106087217869E-3</v>
+        <v>7.8760653759108162E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.25079251796192215</v>
+        <v>0.85579093335899392</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>9.8276386040126629E-4</v>
+        <v>1.144340815030403E-2</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2420,14 +2420,14 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>5.6675653555379865E-4</v>
+        <v>6.4770205593488598E-3</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.5717963614418986</v>
+        <v>0.70997759405370831</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>5.1086106087217869E-3</v>
+        <v>7.8760653759108162E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.25079251796192215</v>
+        <v>0.85579093335899392</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>9.8276386040126629E-4</v>
+        <v>1.144340815030403E-2</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2592,14 +2592,14 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>5.6675653555379865E-4</v>
+        <v>6.4770205593488598E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2610,20 +2610,21 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.625</v>
-      </c>
-      <c r="E11" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+      <c r="D11">
+        <f>-1.6046754518</f>
+        <v>-1.6046754517999999</v>
+      </c>
+      <c r="E11">
+        <f>-0.092597515</f>
+        <v>-9.2597515000000005E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>2.5390625E-2</v>
+        <v>-2.5073053934374999E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-1.4468361718750001E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="22"/>
@@ -2638,23 +2639,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.0717963614418986</v>
+        <v>-1.0196978577462916</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.55882277127804</v>
+        <v>1.4107815918786613</v>
       </c>
       <c r="M11">
         <f>C11*K11^2</f>
-        <v>6.7067815051310778E-2</v>
+        <v>1.6246620642068381E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>3.7967631753983572E-2</v>
+        <v>3.1098510937245149E-2</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>5.0461927276040944E-2</v>
+        <v>-2.247767135916522E-2</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2669,31 +2670,31 @@
       </c>
       <c r="S11">
         <f t="shared" si="11"/>
-        <v>1.4345703124999998E-2</v>
+        <v>-1.4166275472921873E-2</v>
       </c>
       <c r="T11">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-8.1746243710937498E-4</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>1.7507925179619221</v>
+        <v>-0.87388451844100601</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>1.4084016698073216</v>
+        <v>1.2841988846935355</v>
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>4.7894913139866366E-2</v>
+        <v>1.1932408618294827E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="14"/>
-        <v>3.099367599243831E-2</v>
+        <v>2.5768230866376883E-2</v>
       </c>
       <c r="Y11">
         <f t="shared" si="15"/>
-        <v>3.8528423527870878E-2</v>
+        <v>-1.7535023811451365E-2</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2758,18 +2759,18 @@
       </c>
       <c r="AZ11">
         <f t="shared" si="17"/>
-        <v>1.7522921890154728E-2</v>
+        <v>1.457054539393002E-2</v>
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>2.707212087845158E-2</v>
+        <v>6.75330582376366E-3</v>
       </c>
       <c r="BB11">
         <f t="shared" si="19"/>
-        <v>2.1768559293247045E-2</v>
+        <v>-9.9072884534700204E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2781,19 +2782,20 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>1.75</v>
+        <f>-1.7254548192</f>
+        <v>-1.7254548192000001</v>
       </c>
       <c r="E12" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+        <f>-0.1248053464</f>
+        <v>-0.1248053464</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>2.734375E-2</v>
+        <v>-2.6960231550000002E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-1.9500835375E-3</v>
       </c>
       <c r="H12">
         <f t="shared" si="22"/>
@@ -2808,23 +2810,23 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>2.1967963614418986</v>
+        <v>-1.1404772251462918</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1.55882277127804</v>
+        <v>1.3785737604786612</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>7.5404910213193205E-2</v>
+        <v>2.0323254704334149E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="8"/>
-        <v>3.7967631753983572E-2</v>
+        <v>2.9694775204379329E-2</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>5.3506503001193362E-2</v>
+        <v>-2.4566124640784254E-2</v>
       </c>
       <c r="P12">
         <v>1130</v>
@@ -2839,31 +2841,31 @@
       </c>
       <c r="S12">
         <f t="shared" si="11"/>
-        <v>1.5449218749999999E-2</v>
+        <v>-1.5232530825749999E-2</v>
       </c>
       <c r="T12">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-1.1017971986874999E-3</v>
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
-        <v>1.8757925179619221</v>
+        <v>-0.99466388584100618</v>
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>1.4084016698073216</v>
+        <v>1.2519910532935354</v>
       </c>
       <c r="W12">
         <f t="shared" si="13"/>
-        <v>5.4978087038155127E-2</v>
+        <v>1.5458691340567659E-2</v>
       </c>
       <c r="X12">
         <f t="shared" si="14"/>
-        <v>3.099367599243831E-2</v>
+        <v>2.4491899961360256E-2</v>
       </c>
       <c r="Y12">
         <f t="shared" si="15"/>
-        <v>4.1279208039213304E-2</v>
+        <v>-1.9457973220423783E-2</v>
       </c>
       <c r="Z12">
         <v>7.8</v>
@@ -2930,18 +2932,18 @@
       </c>
       <c r="AZ12">
         <f t="shared" si="17"/>
-        <v>1.7522921890154728E-2</v>
+        <v>1.3849418432595626E-2</v>
       </c>
       <c r="BA12">
         <f t="shared" si="18"/>
-        <v>3.107411413098473E-2</v>
+        <v>8.7456555618478111E-3</v>
       </c>
       <c r="BB12">
         <f t="shared" si="19"/>
-        <v>2.3322752542155514E-2</v>
+        <v>-1.0993754869539437E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3098,7 +3100,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3422,11 +3424,11 @@
       </c>
       <c r="F16" s="2">
         <f>SUM(F2:F5,F11:F12)</f>
-        <v>-0.33875663587906291</v>
+        <v>-0.44352429636343788</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ref="G16:J16" si="23">SUM(G2:G5,G11:G12)</f>
-        <v>-1.1344973055544929</v>
+        <v>-1.1398473502638677</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="23"/>
@@ -3442,15 +3444,15 @@
       </c>
       <c r="M16" s="2">
         <f>SUM(M2:M5,M11:M12)</f>
-        <v>0.28992520726493698</v>
+        <v>0.17947011127879695</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" ref="N16:O16" si="24">SUM(N2:N5,N11:N12)</f>
-        <v>0.82987685034740599</v>
+        <v>0.81408359515750583</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="24"/>
-        <v>3.8897756483576018E-3</v>
+        <v>-0.15361553162220312</v>
       </c>
       <c r="R16" s="2">
         <f>SUM(R2:R5,R11:R12)</f>
@@ -3458,38 +3460,38 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" ref="S16:T16" si="25">SUM(S2:S5,S11:S12)</f>
-        <v>-1.2307682012080519E-2</v>
+        <v>-7.1501410185752387E-2</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="25"/>
-        <v>-0.13168453927069784</v>
+        <v>-0.1347073145314947</v>
       </c>
       <c r="W16" s="2">
         <f>SUM(W2:W5,W11:W12)</f>
-        <v>0.36805175757246167</v>
+        <v>0.19559039553062041</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" ref="X16:Y16" si="26">SUM(X2:X5,X11:X12)</f>
-        <v>0.84703204746747507</v>
+        <v>0.82623221501423127</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="26"/>
-        <v>4.0499560827139743E-2</v>
+        <v>-0.16760978777813218</v>
       </c>
       <c r="AZ16" s="2">
         <f>SUM(AZ2:AZ5,AZ11:AZ12)</f>
-        <v>0.14019346369208396</v>
+        <v>0.13210759476974177</v>
       </c>
       <c r="BA16" s="2">
         <f t="shared" ref="BA16:BB16" si="27">SUM(BA2:BA5,BA11:BA12)</f>
-        <v>0.1264258576425826</v>
+        <v>7.4388907493138659E-2</v>
       </c>
       <c r="BB16" s="2">
         <f t="shared" si="27"/>
-        <v>3.7018839423685584E-2</v>
+        <v>-4.3508434346885359E-2</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="1"/>
       <c r="R21" s="4" t="s">
         <v>54</v>
@@ -3497,13 +3499,13 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q22" s="2"/>
       <c r="R22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3513,7 +3515,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3521,7 +3523,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
